--- a/Documentation/Documentation.xlsx
+++ b/Documentation/Documentation.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Data Science\NHS_PortFolio_Project\Treated_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Data Science\NHS_PortFolio_Project\Treated_Data\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6D3DBA-4723-46EA-AFB4-D93D7924C0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53650BD5-0109-40AD-BC09-8239A8BC4960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5C12B6D1-411E-4FC0-ACCA-929EC8F27652}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5C12B6D1-411E-4FC0-ACCA-929EC8F27652}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cleaning" sheetId="1" r:id="rId1"/>
-    <sheet name="Transformation" sheetId="2" r:id="rId2"/>
+    <sheet name="NHS_data_dictionary_reference" sheetId="3" r:id="rId1"/>
+    <sheet name="Cleaning" sheetId="1" r:id="rId2"/>
+    <sheet name="Transformation" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
   <si>
     <t>Table</t>
   </si>
@@ -69,12 +70,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>nonsensical alphanumeric date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extract and reformat date correctly </t>
-  </si>
-  <si>
     <t>Data Cleaning</t>
   </si>
   <si>
@@ -100,13 +95,196 @@
   </si>
   <si>
     <t>For data collected between April 2019 and March 2023, I added columns ‘Emergency admissions via A&amp;E - Type 1’, ‘Emergency admissions via A&amp;E - Type 2’, ‘Emergency admissions via A&amp;E – Other A&amp;E department’, and ‘Other emergency admissions’ to create a new column ‘total_emergency_admissions’.</t>
+  </si>
+  <si>
+    <t>Unusable date format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extract and used DATE Function to standardise the dates </t>
+  </si>
+  <si>
+    <t>Filter out rows with "Total" in the category column to avoid double counting during analysis</t>
+  </si>
+  <si>
+    <t>Removed TotalRows</t>
+  </si>
+  <si>
+    <t>Source.Name</t>
+  </si>
+  <si>
+    <t>Column not useful for analysis</t>
+  </si>
+  <si>
+    <t>Removed unneeded column</t>
+  </si>
+  <si>
+    <t>Clean headers as inconsistent naming can make it harder to reference code, merge datasets or build models</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Renamed all headers</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>NHS Definition Reference</t>
+  </si>
+  <si>
+    <t>Reporting month or period</t>
+  </si>
+  <si>
+    <t>Org Code</t>
+  </si>
+  <si>
+    <t>Trust or site or provider code</t>
+  </si>
+  <si>
+    <t>https://www.datadictionary.nhs.uk/data_elements/organisation_identifier__code_of_provider_.html</t>
+  </si>
+  <si>
+    <t>Parent Org</t>
+  </si>
+  <si>
+    <t>Parent organisation or commissioner</t>
+  </si>
+  <si>
+    <t>https://www.datadictionary.nhs.uk/data_elements/organisation_name.html</t>
+  </si>
+  <si>
+    <t>Org Name</t>
+  </si>
+  <si>
+    <t>Name of the NHS organisation or provider</t>
+  </si>
+  <si>
+    <t>https://www.datadictionary.nhs.uk/data_elements/organisation_name__health_care_provider_.html</t>
+  </si>
+  <si>
+    <t>A&amp;E attendances Type 1</t>
+  </si>
+  <si>
+    <t>Attendances at major A&amp;E (Type 1)</t>
+  </si>
+  <si>
+    <t>https://www.datadictionary.nhs.uk/data_elements/emergency_care_department_type.html</t>
+  </si>
+  <si>
+    <t>A&amp;E attendances Type 2</t>
+  </si>
+  <si>
+    <t>Attendances at specialist A&amp;E (Type 2)</t>
+  </si>
+  <si>
+    <t>A&amp;E attendances Other A&amp;E Department</t>
+  </si>
+  <si>
+    <t>Attendances at MIUs or walk-ins (Type 3/4)</t>
+  </si>
+  <si>
+    <t>Attendances over 4hrs Type 1</t>
+  </si>
+  <si>
+    <t>Patients in Type 1 spending &gt;4 hours</t>
+  </si>
+  <si>
+    <t>Derived</t>
+  </si>
+  <si>
+    <t>Attendances over 4hrs Type 2</t>
+  </si>
+  <si>
+    <t>Patients in Type 2 spending &gt;4 hours</t>
+  </si>
+  <si>
+    <t>Attendances over 4hrs Other Department</t>
+  </si>
+  <si>
+    <t>Patients in Type 3/4 spending &gt;4 hours</t>
+  </si>
+  <si>
+    <t>Patients who have waited 4-12 hs from DTA to admission</t>
+  </si>
+  <si>
+    <t>Wait 4–12 hrs from decision to admit to admission</t>
+  </si>
+  <si>
+    <t>Patients who have waited 12+ hrs from DTA to admission</t>
+  </si>
+  <si>
+    <t>Wait 12+ hrs from decision to admit to admission</t>
+  </si>
+  <si>
+    <t>Emergency admissions via A&amp;E - Type 1</t>
+  </si>
+  <si>
+    <t>Emergency admissions from Type 1 A&amp;E</t>
+  </si>
+  <si>
+    <t>https://www.datadictionary.nhs.uk/data_elements/method_of_admission__hospital_provider_spell_.html</t>
+  </si>
+  <si>
+    <t>Emergency admissions via A&amp;E - Type 2</t>
+  </si>
+  <si>
+    <t>Emergency admissions from Type 2 A&amp;E</t>
+  </si>
+  <si>
+    <t>Emergency admissions via A&amp;E - Other A&amp;E department</t>
+  </si>
+  <si>
+    <t>Emergency admissions from Type 3/4 A&amp;E</t>
+  </si>
+  <si>
+    <t>Other emergency admissions</t>
+  </si>
+  <si>
+    <t>Emergency admissions not via A&amp;E (e.g., GP)</t>
+  </si>
+  <si>
+    <t>Seen_after_4hours</t>
+  </si>
+  <si>
+    <t>Seen_within_4hours</t>
+  </si>
+  <si>
+    <t>Percentage_of patients_seen_within_4hours</t>
+  </si>
+  <si>
+    <t>Proportion of attendances with (Time Seen – Arrival Time) ≤ 4 hours. Published in NHS England’s Monthly Operational Statistics .</t>
+  </si>
+  <si>
+    <t>Proportion of attendances exceeding 4 hours. = 100% – Seen_within_4hours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHS constitutional performance metric (target: 95%). Tracked in national operational reporting </t>
+  </si>
+  <si>
+    <t>Emergency care departure time</t>
+  </si>
+  <si>
+    <t>https://www.datadictionary.nhs.uk/data_elements/emergency_care_departure_time.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timestamp at discharge/transfer/admission </t>
+  </si>
+  <si>
+    <t>Emergency care time seen for treatment</t>
+  </si>
+  <si>
+    <t>https://www.datadictionary.nhs.uk/data_elements/emergency_care_time_seen_for_treatment.html</t>
+  </si>
+  <si>
+    <t>Timestamp when patient first seen by clinician in the Emergency Department</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +306,20 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -137,7 +329,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -145,24 +337,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -494,66 +710,394 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D3B218-BC52-440A-97F2-F79E1A386668}">
-  <dimension ref="A2:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203EAA8F-6A2D-49DA-A1A1-BB07FD42D433}">
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{462583B2-78B4-4895-A5C4-C2E18A62BA31}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{61FD507C-5E5F-4654-996A-65786249F48C}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{402F2646-6D8F-4EC4-B2EF-88637F9ACCA1}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{BC247E55-39B7-4CF4-B3A0-25E21BF18BF1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D3B218-BC52-440A-97F2-F79E1A386668}">
+  <dimension ref="A2:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="88.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -561,11 +1105,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16836D55-FB65-43C5-AA4D-9319B8E2E5C3}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -576,55 +1120,55 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
